--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254648.9795573523</v>
+        <v>251947.7629058957</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.2791855053265</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>237.9688518868389</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>124.0182950532142</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.42989675764909</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -786,10 +786,10 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>123.5932678723546</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>65.77030295285051</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>6.200974317228167</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154317</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776992</v>
+        <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863705</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154317</v>
+        <v>8.312012538738902</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>98.06033461063463</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333227</v>
+        <v>97.33388804333229</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951727</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713763</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>158.7608692779832</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>85.82538108525196</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643479</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315185</v>
       </c>
       <c r="S7" t="n">
-        <v>106.3540925010291</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179.4336257791588</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>35.9524543521409</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>8.906162259191587</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>196.4017961483592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>35.05961355038374</v>
+        <v>315.3998342615266</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1585,16 +1585,16 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>251.7849821549141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>30.05706037504512</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1658,7 +1658,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>21.23835815356833</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503995</v>
       </c>
       <c r="D19" t="n">
-        <v>122.8704329402521</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365892</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695558</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.9742741983365</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>28.54004930889236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712587</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>142.428530160118</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2792,10 +2792,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833745</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.3555494301536</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833772</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>212.5602966632238</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>42.53134576113706</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.019807611471862</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>82.52140782073299</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206844</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880059</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388467</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="G2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4361,19 +4361,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388467</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388467</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>534.7928453799757</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388467</v>
+        <v>294.4202677165021</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>396.7069494069769</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C3" t="n">
-        <v>396.7069494069769</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>396.7069494069769</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>396.7069494069769</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
@@ -4413,19 +4413,19 @@
         <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442525</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="U3" t="n">
-        <v>839.7105578442525</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="V3" t="n">
-        <v>604.5584496125098</v>
+        <v>652.7312295849122</v>
       </c>
       <c r="W3" t="n">
-        <v>604.5584496125098</v>
+        <v>398.4938728567105</v>
       </c>
       <c r="X3" t="n">
-        <v>396.7069494069769</v>
+        <v>398.4938728567105</v>
       </c>
       <c r="Y3" t="n">
-        <v>396.7069494069769</v>
+        <v>190.7335740917566</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.5552481464716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>307.6190652185647</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>307.6190652185647</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>930.0138352864747</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>930.0138352864747</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="T4" t="n">
-        <v>704.544799044489</v>
+        <v>762.9518343167156</v>
       </c>
       <c r="U4" t="n">
-        <v>704.544799044489</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>704.544799044489</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>704.544799044489</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>476.5552481464716</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>476.5552481464716</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>437.0664254074869</v>
+        <v>821.8262933957174</v>
       </c>
       <c r="C5" t="n">
-        <v>437.0664254074869</v>
+        <v>821.8262933957174</v>
       </c>
       <c r="D5" t="n">
-        <v>437.0664254074869</v>
+        <v>463.5605947889668</v>
       </c>
       <c r="E5" t="n">
-        <v>430.8028149860443</v>
+        <v>463.5605947889668</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631528</v>
+        <v>456.6150940397633</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523454</v>
+        <v>444.0706587086826</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523454</v>
+        <v>130.9983022541607</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523454</v>
+        <v>30.6950182252344</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275141</v>
+        <v>93.76641159275096</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245564</v>
+        <v>239.0325989245553</v>
       </c>
       <c r="L5" t="n">
-        <v>456.149911482564</v>
+        <v>456.1499114825618</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748872</v>
+        <v>729.404193174884</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202381</v>
+        <v>1011.693823202377</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798415</v>
+        <v>1264.91665479841</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189413</v>
+        <v>1446.535482189406</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261727</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261727</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518255</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="T5" t="n">
-        <v>1177.39844210733</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="U5" t="n">
-        <v>1177.39844210733</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="V5" t="n">
-        <v>1177.39844210733</v>
+        <v>1203.68802391815</v>
       </c>
       <c r="W5" t="n">
-        <v>824.629786837216</v>
+        <v>1203.68802391815</v>
       </c>
       <c r="X5" t="n">
-        <v>824.629786837216</v>
+        <v>830.2222656570698</v>
       </c>
       <c r="Y5" t="n">
-        <v>437.0664254074869</v>
+        <v>821.8262933957174</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264.702783299461</v>
+        <v>129.012076854863</v>
       </c>
       <c r="C6" t="n">
-        <v>264.702783299461</v>
+        <v>129.012076854863</v>
       </c>
       <c r="D6" t="n">
-        <v>264.702783299461</v>
+        <v>129.012076854863</v>
       </c>
       <c r="E6" t="n">
-        <v>264.702783299461</v>
+        <v>129.012076854863</v>
       </c>
       <c r="F6" t="n">
-        <v>264.702783299461</v>
+        <v>129.012076854863</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>129.012076854863</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.6950182252344</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523454</v>
+        <v>30.6950182252344</v>
       </c>
       <c r="J6" t="n">
-        <v>49.4420610756344</v>
+        <v>49.44206107563397</v>
       </c>
       <c r="K6" t="n">
-        <v>159.638568016945</v>
+        <v>388.9600665101408</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482972</v>
+        <v>583.4554103414923</v>
       </c>
       <c r="M6" t="n">
-        <v>600.4576725190434</v>
+        <v>829.7791710122377</v>
       </c>
       <c r="N6" t="n">
-        <v>867.7095350912662</v>
+        <v>1097.03103358446</v>
       </c>
       <c r="O6" t="n">
-        <v>1089.972982256785</v>
+        <v>1319.294480749978</v>
       </c>
       <c r="P6" t="n">
-        <v>1469.823832794062</v>
+        <v>1478.347425948665</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261727</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757976</v>
+        <v>1534.75091126172</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.878273152071</v>
+        <v>1390.282497655815</v>
       </c>
       <c r="T6" t="n">
-        <v>1189.973630703755</v>
+        <v>1194.377855207499</v>
       </c>
       <c r="U6" t="n">
-        <v>961.8525470243592</v>
+        <v>1034.013340785294</v>
       </c>
       <c r="V6" t="n">
-        <v>726.7004387926165</v>
+        <v>798.8612325535514</v>
       </c>
       <c r="W6" t="n">
-        <v>472.4630820644149</v>
+        <v>544.6238758253497</v>
       </c>
       <c r="X6" t="n">
-        <v>472.4630820644149</v>
+        <v>336.7723756198169</v>
       </c>
       <c r="Y6" t="n">
-        <v>264.702783299461</v>
+        <v>129.012076854863</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>327.4225402274001</v>
+        <v>117.3873223517515</v>
       </c>
       <c r="C7" t="n">
-        <v>327.4225402274001</v>
+        <v>117.3873223517515</v>
       </c>
       <c r="D7" t="n">
-        <v>327.4225402274001</v>
+        <v>117.3873223517515</v>
       </c>
       <c r="E7" t="n">
-        <v>179.509446645007</v>
+        <v>117.3873223517515</v>
       </c>
       <c r="F7" t="n">
-        <v>32.61949914709664</v>
+        <v>117.3873223517515</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709664</v>
+        <v>117.3873223517515</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709664</v>
+        <v>30.6950182252344</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709664</v>
+        <v>30.6950182252344</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523454</v>
+        <v>30.6950182252344</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223269</v>
+        <v>157.4322756223264</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830393</v>
+        <v>375.1387655830384</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388159</v>
+        <v>615.0688576388145</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974833</v>
+        <v>854.7285647974815</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.076798891671</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934023</v>
+        <v>1212.26700593402</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495185</v>
+        <v>1113.86649040274</v>
       </c>
       <c r="S7" t="n">
-        <v>1126.772160231519</v>
+        <v>1113.86649040274</v>
       </c>
       <c r="T7" t="n">
-        <v>1126.772160231519</v>
+        <v>889.2012322792842</v>
       </c>
       <c r="U7" t="n">
-        <v>837.6322894078908</v>
+        <v>600.0613614556557</v>
       </c>
       <c r="V7" t="n">
-        <v>837.6322894078908</v>
+        <v>345.3768732497689</v>
       </c>
       <c r="W7" t="n">
-        <v>548.2151193709302</v>
+        <v>345.3768732497689</v>
       </c>
       <c r="X7" t="n">
-        <v>548.2151193709302</v>
+        <v>117.3873223517515</v>
       </c>
       <c r="Y7" t="n">
-        <v>327.4225402274001</v>
+        <v>117.3873223517515</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.953909778728</v>
+        <v>880.645441216167</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>880.645441216167</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>880.645441216167</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424343</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1975.513606560042</v>
+        <v>1872.090169197696</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.099855499049</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.834156892298</v>
+        <v>1195.238779417686</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044465</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592071</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656956</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464064</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796036</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.9046893774</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498929</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155358</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885244</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.113446624164</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2362.113446624164</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592071</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>354.473570333545</v>
+        <v>470.7769964046659</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914966</v>
+        <v>889.4740370626176</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749523</v>
+        <v>996.4574081599342</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450733</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.287366026812</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="C13" t="n">
-        <v>834.3511830989049</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648144</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344809</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276104</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710544</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659995</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.935830857052</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1184.935830857052</v>
+        <v>814.542935599924</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.935830857052</v>
+        <v>586.5533847019067</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.935830857052</v>
+        <v>556.1927176564066</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770327</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>803.2707707770327</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>653.1541313646969</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5446,7 +5446,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5455,7 +5455,7 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5473,13 +5473,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072724</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327658</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803618</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979687</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630055</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2497.745796000626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2351.089047197418</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,19 +6148,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="26">
@@ -6218,22 +6218,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6242,10 +6242,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>552.8412329032295</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,7 +6382,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038343</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2236.050177650725</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2016.448712673666</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1727.373486017864</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1183.271827775017</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>955.2822768769994</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>734.4896977334693</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6479,19 +6479,19 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466574</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C31" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D31" t="n">
-        <v>402.724593490894</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="E31" t="n">
-        <v>402.724593490894</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="F31" t="n">
-        <v>402.724593490894</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138422</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6716,31 +6716,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310022</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6974,7 +6974,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,10 +7208,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7254,22 +7254,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>719.5738700011939</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C40" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797742</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1894.106123115828</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1639.421634909942</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1350.004464872981</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1122.014913974964</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y40" t="n">
-        <v>901.2223348314336</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7573,46 +7573,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,37 +7661,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636991</v>
+        <v>34.43939438637031</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.6378772658553</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>223.0281872106962</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.609690055161181</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566545</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>330.2132782206238</v>
+        <v>49.87305750948099</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3526611689139258</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>188.5275929770497</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.462504043051945e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>125.1956044930008</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864901</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844822831</v>
       </c>
       <c r="D19" t="n">
-        <v>25.7450400779603</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459474</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.4862366927522</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459318</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038592</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294997</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>38.59775584152661</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393139</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>73.62417772602038</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067405</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.6630665685112</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393139</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>963954.9528919492</v>
+        <v>963954.9528919496</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234783</v>
+        <v>329665.1599234785</v>
       </c>
       <c r="F2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="G2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="G2" t="n">
-        <v>363215.9698605026</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="I2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="J2" t="n">
         <v>363215.9698605026</v>
-      </c>
-      <c r="J2" t="n">
-        <v>363215.9698605027</v>
       </c>
       <c r="K2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="M2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="O2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657077</v>
+        <v>132804.2190657058</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929369</v>
+        <v>265413.0723929387</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545773</v>
+        <v>313577.1573545779</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704291</v>
+        <v>189308.2687704286</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417445</v>
+        <v>30877.42926417393</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049547</v>
+        <v>65018.3450204959</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273072</v>
+        <v>81897.40371273094</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202366</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>217460.7998099262</v>
+        <v>217460.7998099267</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676995</v>
@@ -26427,13 +26427,13 @@
         <v>12281.50162217159</v>
       </c>
       <c r="F4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="G4" t="n">
         <v>12386.92018181811</v>
       </c>
-      <c r="G4" t="n">
-        <v>12386.92018181813</v>
-      </c>
       <c r="H4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26445,19 +26445,19 @@
         <v>12386.92018181809</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="N4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>12386.92018181814</v>
       </c>
-      <c r="O4" t="n">
-        <v>12386.92018181809</v>
-      </c>
       <c r="P4" t="n">
-        <v>12386.92018181805</v>
+        <v>12386.92018181813</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.650386675</v>
+        <v>72593.65038667485</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-626683.7522638671</v>
+        <v>-626683.7522638669</v>
       </c>
       <c r="C6" t="n">
-        <v>-53389.87282338142</v>
+        <v>-53389.87282337988</v>
       </c>
       <c r="D6" t="n">
-        <v>-131629.0056615538</v>
+        <v>-131629.0056615556</v>
       </c>
       <c r="E6" t="n">
-        <v>-81330.98412065631</v>
+        <v>-81552.11543463144</v>
       </c>
       <c r="F6" t="n">
-        <v>60398.25108434841</v>
+        <v>60363.51315891312</v>
       </c>
       <c r="G6" t="n">
-        <v>249706.5198547774</v>
+        <v>249671.7819293418</v>
       </c>
       <c r="H6" t="n">
-        <v>249706.5198547774</v>
+        <v>249671.7819293417</v>
       </c>
       <c r="I6" t="n">
-        <v>249706.5198547773</v>
+        <v>249671.781929342</v>
       </c>
       <c r="J6" t="n">
-        <v>180707.3654356634</v>
+        <v>180672.6275102275</v>
       </c>
       <c r="K6" t="n">
-        <v>218829.0905906031</v>
+        <v>218794.352665168</v>
       </c>
       <c r="L6" t="n">
-        <v>184688.1748342819</v>
+        <v>184653.436908846</v>
       </c>
       <c r="M6" t="n">
-        <v>167809.1161420468</v>
+        <v>167774.3782166108</v>
       </c>
       <c r="N6" t="n">
-        <v>199866.9457227538</v>
+        <v>199832.2077973182</v>
       </c>
       <c r="O6" t="n">
-        <v>249706.5198547774</v>
+        <v>249671.7819293417</v>
       </c>
       <c r="P6" t="n">
-        <v>249706.5198547775</v>
+        <v>249671.7819293418</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695754</v>
+        <v>717.3319511695739</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154317</v>
+        <v>383.68772781543</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490089</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.276937400097</v>
+        <v>103.2769374000956</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479637</v>
+        <v>216.7329409479652</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974117</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139256</v>
+        <v>119.9738478139238</v>
       </c>
       <c r="D4" t="n">
-        <v>256.897104284607</v>
+        <v>256.8971042846087</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139258</v>
+        <v>119.9738478139238</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284607</v>
+        <v>256.8971042846087</v>
       </c>
       <c r="M4" t="n">
-        <v>328.63599184897</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139256</v>
+        <v>119.9738478139238</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284607</v>
+        <v>256.8971042846087</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.596860236385</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442037</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27433,19 +27433,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>148.2690867692147</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>42.51488859665317</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>52.63931563573479</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.911335011309305</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>138.9488612907433</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>375.7293957550336</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792627969</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863682</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840621844</v>
+        <v>377.9259261173147</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>37.7402421293056</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713962</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>67.07900356461857</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>64.9009611231082</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643664</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>95.11946700492553</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>203.3002158843218</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>345.9779157201209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>137.5278003873776</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>55.73584717546876</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.779696390258323e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-2.647518703460994e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365125</v>
+        <v>2.883746537365119</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579059</v>
+        <v>29.53316922579053</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.1756383817689</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756935</v>
+        <v>244.754382675693</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023593</v>
+        <v>366.8233736023586</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952474</v>
+        <v>455.0768316952464</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791144</v>
+        <v>506.3606591791133</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284031</v>
+        <v>514.554104028402</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974786</v>
+        <v>485.8788493974776</v>
       </c>
       <c r="P5" t="n">
-        <v>414.686356756277</v>
+        <v>414.6863567562762</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868884</v>
+        <v>311.4121838868877</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277622</v>
+        <v>181.1461434277618</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020785</v>
+        <v>65.71337422020771</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731584</v>
+        <v>12.62360046731582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.23069972298921</v>
+        <v>0.2306997229892095</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270408</v>
+        <v>1.542940423270404</v>
       </c>
       <c r="H6" t="n">
-        <v>14.9015561931642</v>
+        <v>14.90155619316417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189781</v>
+        <v>53.1231680818977</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862625</v>
+        <v>145.7740335862622</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453798</v>
+        <v>249.1510419453793</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438663</v>
+        <v>335.0143230438657</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874186</v>
+        <v>390.9459133874178</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189119</v>
+        <v>401.293088418911</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348675</v>
+        <v>367.1047769348668</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190658</v>
+        <v>294.6339480190652</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739559</v>
+        <v>196.9549915739555</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392937</v>
+        <v>95.79765189392917</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399198</v>
+        <v>28.65944163399192</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989053</v>
+        <v>6.21913267098904</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141857</v>
+        <v>1.293549420141854</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907943</v>
+        <v>11.50083029907941</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572059</v>
+        <v>38.90055892572051</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040293</v>
+        <v>91.45394400402911</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401176</v>
+        <v>150.2869235401172</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545449</v>
+        <v>192.3155201545445</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773276</v>
+        <v>202.7697513773272</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022536</v>
+        <v>197.9483399022532</v>
       </c>
       <c r="O7" t="n">
-        <v>182.83733076696</v>
+        <v>182.8373307669596</v>
       </c>
       <c r="P7" t="n">
-        <v>156.448922596066</v>
+        <v>156.4489225960657</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266059</v>
+        <v>108.3171246266057</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565112</v>
+        <v>58.162685745651</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101763</v>
+        <v>22.54303853101758</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060661</v>
+        <v>5.526983886060649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864683</v>
+        <v>0.07055724109864669</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869145</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.4972987763924</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975128</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544658</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954562</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.387576118017</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956807</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.010221962036</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.923732282597</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>417.5746757598382</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>561.480683474775</v>
       </c>
       <c r="M12" t="n">
-        <v>382.5526639806304</v>
+        <v>250.198045131429</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.5632370340506</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>615.2639659924475</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>493.8035753383447</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047541</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811713</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.263170188377487</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,34 +32072,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099994</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,22 +32546,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123205</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832324</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572289</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900722</v>
+        <v>63.70847814900671</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573788</v>
+        <v>146.733522557378</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252602</v>
+        <v>219.3104167252592</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518416</v>
+        <v>276.0144259518406</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318122</v>
+        <v>285.1410404318111</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757918</v>
+        <v>255.7806379757909</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010075</v>
+        <v>183.4533610010066</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.1064940124389</v>
+        <v>89.10649401243822</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959581</v>
+        <v>18.93640691959553</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710208</v>
+        <v>342.9474802368755</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639922</v>
+        <v>196.4599432639915</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654002</v>
+        <v>248.8118794653994</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355785</v>
+        <v>269.9513763355777</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904231</v>
+        <v>224.5085324904223</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6877278154317</v>
+        <v>160.659540604735</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.58290754309557</v>
+        <v>56.97321748793397</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142347</v>
+        <v>128.0174317142344</v>
       </c>
       <c r="L7" t="n">
-        <v>219.905545414861</v>
+        <v>219.9055454148606</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391682</v>
+        <v>242.3536283391678</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814822</v>
+        <v>242.0805122814818</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809997</v>
+        <v>207.4224586809993</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609595</v>
+        <v>153.7274818609592</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.1550813749115</v>
+        <v>22.15508137491128</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,13 +35264,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P9" t="n">
-        <v>304.6326742391977</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525323</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681835</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.974512521426</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739939</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067664</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081475</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553085</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854792</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>422.9263036949008</v>
       </c>
       <c r="M12" t="n">
-        <v>240.4186300586121</v>
+        <v>108.0640112094106</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.2215249507174</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>472.6677215480031</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240144</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187326</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655351</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186281</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323315</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.3763835677632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>226.582746865555</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>18.86448192629892</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066227</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998991</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
